--- a/Etapa 6.xlsx
+++ b/Etapa 6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudo\TS2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudo\TS2 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2131EC4A-749E-4552-AF95-CF40EE20EC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDE1C9-E746-4A02-8EC7-2EB1189A786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{109FBE79-92F4-440D-B739-9FF033D88629}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>TABELA COM OS LINK DA PASTA E VÍDEO DO PROJETO</t>
   </si>
@@ -82,16 +82,22 @@
 Etapa 7</t>
   </si>
   <si>
-    <t>https://github.com/GregOliverDev/TS2/tree/master/TS2/Validacoes</t>
-  </si>
-  <si>
     <t>Nome: Video Demonstração</t>
   </si>
   <si>
     <t>Nome: TS2</t>
   </si>
   <si>
-    <t>https://github.com/GregOliverDev/TS2</t>
+    <t>https://github.com/GregOliverDev/TS2-Project/tree/master/Videos</t>
+  </si>
+  <si>
+    <t>https://github.com/GregOliverDev/TS2-Project</t>
+  </si>
+  <si>
+    <t>https://github.com/GregOliverDev/TS2-Project/tree/master/Validacoes</t>
+  </si>
+  <si>
+    <t>https://github.com/GregOliverDev/TS2-Project/tree/master/Anexos</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -256,6 +262,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -268,28 +298,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -609,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C52586C-72CC-4483-A14A-2A59B17313C5}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,11 +642,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -648,25 +657,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
+      <c r="D4" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -690,11 +701,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -725,8 +736,10 @@
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="E9" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="16"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -740,8 +753,10 @@
       <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="16"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -774,10 +789,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
@@ -789,27 +804,27 @@
       </c>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
@@ -827,21 +842,21 @@
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
@@ -859,21 +874,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
@@ -891,13 +906,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,9 +928,9 @@
       <c r="A23" s="6"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,9 +946,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,9 +964,9 @@
       <c r="A27" s="6"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,9 +981,9 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
@@ -980,9 +995,9 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -994,20 +1009,21 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="B14:C14"/>
@@ -1020,22 +1036,20 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1" xr:uid="{E1DBAA3D-4374-41C7-8D8D-CE5F7D537A62}"/>
-    <hyperlink ref="C17" r:id="rId2" xr:uid="{5DB8311E-AA4A-4778-9A5F-4D953D5945D6}"/>
-    <hyperlink ref="C19" r:id="rId3" xr:uid="{65E915DA-7B0F-45E3-BB1A-2F4DEBF1C4C1}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{A36D3658-95FC-409E-BBD6-6B9ADFF4B71B}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{BA83338B-EA14-4F3C-9C58-05F5859415F5}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{7E10F4BE-2446-4215-AD6F-4E4E2B67E389}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{A03E9052-D287-4317-A118-667067E347FF}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{61C46DC4-6B80-4CA7-AB76-032A7E0F67AE}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{49EF6512-F6BF-41B0-A8A6-C3E6BF8A9726}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Etapa 6.xlsx
+++ b/Etapa 6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Estudo\TS2 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FDE1C9-E746-4A02-8EC7-2EB1189A786B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B53224E-13D7-40E2-82AD-CE875F8FD8B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{109FBE79-92F4-440D-B739-9FF033D88629}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{109FBE79-92F4-440D-B739-9FF033D88629}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>TABELA COM OS LINK DA PASTA E VÍDEO DO PROJETO</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Responsável</t>
-  </si>
-  <si>
-    <t>&lt;descrição dos resultados obtidos na validação e lista de melhorias necessárias aqui&gt;</t>
   </si>
   <si>
     <t>Gregory de Oliveira</t>
@@ -98,6 +95,18 @@
   </si>
   <si>
     <t>https://github.com/GregOliverDev/TS2-Project/tree/master/Anexos</t>
+  </si>
+  <si>
+    <t>Foi solicitado um padrão de design para o desevolvimento do front end da aplicação e nos foi passado na validacao 1.</t>
+  </si>
+  <si>
+    <t>Foi analizado se eles preferiam salvar o arquivo ou pre-visualizar eles nos passaram que apenas a pré-visualização com possibilidade de donwload nela ja estava bom, foi passado na validacao 2.</t>
+  </si>
+  <si>
+    <t>Solicitação para o banco ser local na rede da empresa validacao 3.</t>
+  </si>
+  <si>
+    <t>Solicitação de revisão do documento check-list validacao 4.</t>
   </si>
 </sst>
 </file>
@@ -262,43 +271,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -320,9 +329,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -360,7 +369,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -466,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -608,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C52586C-72CC-4483-A14A-2A59B17313C5}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,11 +651,11 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -657,12 +666,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="15"/>
-      <c r="D3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="27"/>
+      <c r="D3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="19"/>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6"/>
     </row>
@@ -672,12 +681,12 @@
         <v>2</v>
       </c>
       <c r="C4" s="15"/>
-      <c r="D4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="27"/>
+      <c r="D4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" s="6"/>
     </row>
@@ -701,11 +710,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -731,15 +740,15 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="16"/>
+        <v>13</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="28"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="57" x14ac:dyDescent="0.25">
@@ -748,15 +757,15 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="28"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -789,10 +798,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
@@ -800,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="6"/>
     </row>
@@ -810,21 +819,21 @@
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="5" t="s">
         <v>9</v>
       </c>
@@ -832,31 +841,31 @@
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="5" t="s">
         <v>9</v>
       </c>
@@ -864,7 +873,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -874,21 +883,21 @@
         <v>3</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="5" t="s">
         <v>9</v>
       </c>
@@ -896,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -906,13 +915,13 @@
         <v>4</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+        <v>19</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -928,9 +937,9 @@
       <c r="A23" s="6"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,9 +955,9 @@
       <c r="A25" s="6"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,9 +973,9 @@
       <c r="A27" s="6"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,9 +990,9 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
@@ -995,9 +1004,9 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="10"/>
@@ -1009,21 +1018,20 @@
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D29:F29"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="B14:C14"/>
@@ -1036,11 +1044,12 @@
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -1048,8 +1057,9 @@
     <hyperlink ref="D3" r:id="rId2" xr:uid="{A03E9052-D287-4317-A118-667067E347FF}"/>
     <hyperlink ref="E9" r:id="rId3" xr:uid="{61C46DC4-6B80-4CA7-AB76-032A7E0F67AE}"/>
     <hyperlink ref="E10" r:id="rId4" xr:uid="{49EF6512-F6BF-41B0-A8A6-C3E6BF8A9726}"/>
+    <hyperlink ref="C17" r:id="rId5" xr:uid="{66EBD4D2-9E17-415D-9CAE-31CA524B25A9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>